--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Low Growth - Night Charging</t>
   </si>
   <si>
-    <t>PGE_Resources.xlsx</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
     <t>Smart</t>
   </si>
   <si>
-    <t>All other scenarios than baseline</t>
-  </si>
-  <si>
-    <t>have the coal plant closing</t>
-  </si>
-  <si>
     <t>Battery MW</t>
   </si>
   <si>
@@ -254,6 +245,9 @@
   </si>
   <si>
     <t>Look at offshore Oregon wind vs onshore oregon wind</t>
+  </si>
+  <si>
+    <t>Resources_Baseline.xlsx</t>
   </si>
 </sst>
 </file>
@@ -317,8 +311,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,7 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -496,6 +492,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +548,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -899,10 +897,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -911,19 +909,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -937,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -952,13 +950,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>3</v>
@@ -976,16 +974,16 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1001,13 +999,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -1025,13 +1023,13 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1047,7 +1045,7 @@
         <v>Battery 500-1000</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>500</v>
@@ -1070,7 +1068,7 @@
         <v>Battery 500-2000</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <f>G7</f>
@@ -1094,7 +1092,7 @@
         <v>Battery 500-4000</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <f>G8</f>
@@ -1118,7 +1116,7 @@
         <v>Battery 1000-2000</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -1141,7 +1139,7 @@
         <v>Battery 1000-4000</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <f>G10</f>
@@ -1165,7 +1163,7 @@
         <v>Battery 1000-8000</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <f>G11</f>
@@ -1189,7 +1187,7 @@
         <v>Battery 2000-4000</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>2000</v>
@@ -1212,7 +1210,7 @@
         <v>Battery 2000-8000</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G14">
         <f>G13</f>
@@ -1222,9 +1220,6 @@
         <f>G14*4</f>
         <v>8000</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -1239,7 +1234,7 @@
         <v>Battery 2000-16000</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <f>G14</f>
@@ -1249,9 +1244,6 @@
         <f>G15*8</f>
         <v>16000</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -1266,7 +1258,7 @@
         <v>Battery 3000-6000</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>3000</v>
@@ -1275,9 +1267,6 @@
         <f>G16*2</f>
         <v>6000</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
@@ -1292,7 +1281,7 @@
         <v>Battery 3000-12000</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <f>G16</f>
@@ -1316,7 +1305,7 @@
         <v>Battery 3000-24000</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <f>G17</f>
@@ -1336,10 +1325,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1351,10 +1343,10 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1366,10 +1358,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1381,10 +1373,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1396,10 +1388,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1411,10 +1403,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1426,10 +1418,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1441,15 +1433,15 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1472,10 +1464,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>1000</v>
@@ -1502,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1598,7 +1590,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Resources_Baseline.xlsx</t>
+  </si>
+  <si>
+    <t>THIS EXCEL FILE IS CURRENTLY UNUSED!!! THE ORIGINAL HOPE WAS THAT WE'D HAVE TIME TO MAKE THE SCENARIOS BE SOURCED FROM HERE</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,6 +438,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -881,7 +887,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -890,6 +896,7 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="73.5" style="5" customWidth="1"/>
@@ -1103,7 +1110,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="75">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1117,6 +1124,9 @@
       </c>
       <c r="D10" t="s">
         <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1000</v>
